--- a/1-Lessons/Lesson08/OriginalPowerpoint/Excel_WritingFile.xlsx
+++ b/1-Lessons/Lesson08/OriginalPowerpoint/Excel_WritingFile.xlsx
@@ -50,6 +50,7 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
